--- a/result/dev-test1.xlsx
+++ b/result/dev-test1.xlsx
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9408767389194436</v>
+        <v>0.9408799266727773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9154796568820335</v>
+        <v>0.9154840909687065</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9280044673128315</v>
+        <v>0.9280082959969156</v>
       </c>
       <c r="E4" t="n">
-        <v>38121</v>
+        <v>38123</v>
       </c>
     </row>
     <row r="5">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9794916548489145</v>
+        <v>0.9794927733842378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9968083039604785</v>
+        <v>0.9968084811145339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9880741138117444</v>
+        <v>0.9880747699544723</v>
       </c>
       <c r="E7" t="n">
-        <v>36031</v>
+        <v>36033</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9916033697003176</v>
+        <v>0.9916029058365329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9952318908879217</v>
+        <v>0.9952316265143745</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9934143169429148</v>
+        <v>0.9934139524586988</v>
       </c>
       <c r="E8" t="n">
-        <v>36073</v>
+        <v>36071</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9448704389212057</v>
+        <v>0.9448631495438318</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9781031887231422</v>
+        <v>0.9782340862422998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9611996503261381</v>
+        <v>0.9612590799031476</v>
       </c>
       <c r="E9" t="n">
-        <v>7307</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="10">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7699496764917325</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5112171837708831</v>
+        <v>0.5114503816793893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6144578313253013</v>
+        <v>0.6146788990825688</v>
       </c>
       <c r="E11" t="n">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="12">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8180147058823529</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6788710907704043</v>
+        <v>0.6791158536585366</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7419758232596915</v>
+        <v>0.7421907538525615</v>
       </c>
       <c r="E14" t="n">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8708425720620843</v>
+        <v>0.870856889480102</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8939342210083078</v>
+        <v>0.8939462903959945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8822373224013029</v>
+        <v>0.8822505474759953</v>
       </c>
       <c r="E16" t="n">
-        <v>8787</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="17">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5556569343065694</v>
+        <v>0.5561643835616439</v>
       </c>
       <c r="C18" t="n">
         <v>0.4603174603174603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.503513848697809</v>
+        <v>0.5037220843672456</v>
       </c>
       <c r="E18" t="n">
         <v>1323</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7813815537696135</v>
+        <v>0.7813606353458999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8990532804931748</v>
+        <v>0.8990421666850159</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8360974610974611</v>
+        <v>0.8360806798402786</v>
       </c>
       <c r="E22" t="n">
-        <v>9084</v>
+        <v>9083</v>
       </c>
     </row>
     <row r="23">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.949635520212061</v>
+        <v>0.9496021220159151</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9098412698412699</v>
+        <v>0.9097839898348158</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9293125810635539</v>
+        <v>0.9292667099286178</v>
       </c>
       <c r="E45" t="n">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="46">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8979100558047927</v>
+        <v>0.8978988837820092</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9468097380869966</v>
+        <v>0.9468036002769444</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9217117825452095</v>
+        <v>0.9217029880925636</v>
       </c>
       <c r="E47" t="n">
-        <v>8667</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="48">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.962912327651405</v>
+        <v>0.9629134064399779</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9581741345374551</v>
+        <v>0.9582030797730694</v>
       </c>
       <c r="D49" t="n">
-        <v>0.96053738792328</v>
+        <v>0.9605524685536874</v>
       </c>
       <c r="E49" t="n">
         <v>34548</v>
@@ -1488,13 +1488,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C56" t="n">
         <v>0.1649484536082474</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2269503546099291</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="E56" t="n">
         <v>97</v>
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8797814207650273</v>
+        <v>0.8791208791208791</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8385416666666666</v>
+        <v>0.837696335078534</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8586666666666667</v>
+        <v>0.8579088471849865</v>
       </c>
       <c r="E58" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59">
@@ -1545,13 +1545,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.6272727272727273</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C59" t="n">
         <v>0.359375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.456953642384106</v>
+        <v>0.4554455445544554</v>
       </c>
       <c r="E59" t="n">
         <v>192</v>
@@ -1719,13 +1719,13 @@
         <v>0.6439244431914294</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7162119786767012</v>
+        <v>0.715987460815047</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6781472684085511</v>
+        <v>0.6780466082826184</v>
       </c>
       <c r="E68" t="n">
-        <v>3189</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="69">
@@ -2457,16 +2457,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9276070601851852</v>
+        <v>0.9276099537037037</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9276070601851852</v>
+        <v>0.9276099537037037</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9276070601851852</v>
+        <v>0.9276099537037037</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9276070601851852</v>
+        <v>0.9276099537037037</v>
       </c>
     </row>
     <row r="108">
@@ -2476,13 +2476,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.5716629045789974</v>
+        <v>0.5716908217268754</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4566108518561247</v>
+        <v>0.4566061836535706</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4833884472577281</v>
+        <v>0.4833876771560495</v>
       </c>
       <c r="E108" t="n">
         <v>345600</v>
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9261741324801339</v>
+        <v>0.9261750685057477</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9276070601851852</v>
+        <v>0.9276099537037037</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9241709642024974</v>
+        <v>0.9241728265311593</v>
       </c>
       <c r="E109" t="n">
         <v>345600</v>
